--- a/tochoku_wide.xlsx
+++ b/tochoku_wide.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="127">
   <si>
     <t>name</t>
   </si>
@@ -25,199 +25,319 @@
     <t>希望日</t>
   </si>
   <si>
-    <t>第三希望日</t>
-  </si>
-  <si>
-    <t>第一希望日</t>
-  </si>
-  <si>
-    <t>第二希望日</t>
-  </si>
-  <si>
-    <t>第四希望日</t>
+    <t>×</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>○３</t>
+  </si>
+  <si>
+    <t>○４</t>
+  </si>
+  <si>
+    <t>○２</t>
+  </si>
+  <si>
+    <t>○１</t>
+  </si>
+  <si>
+    <t>山下博美</t>
+  </si>
+  <si>
+    <t>岩﨑文美</t>
+  </si>
+  <si>
+    <t>莇　舜平</t>
+  </si>
+  <si>
+    <t>松永崇宏</t>
+  </si>
+  <si>
+    <t>吉田博道</t>
+  </si>
+  <si>
+    <t>渡邉多代</t>
+  </si>
+  <si>
+    <t>藤村 慶子</t>
+  </si>
+  <si>
+    <t>林智史</t>
+  </si>
+  <si>
+    <t>大重達寛</t>
+  </si>
+  <si>
+    <t>里見　良輔</t>
+  </si>
+  <si>
+    <t>吉田心慈</t>
+  </si>
+  <si>
+    <t>川瀬　咲</t>
+  </si>
+  <si>
+    <t>太良史郎</t>
+  </si>
+  <si>
+    <t>持丸貴生</t>
+  </si>
+  <si>
+    <t>籠尾壽哉</t>
+  </si>
+  <si>
+    <t>織部峻太郎</t>
+  </si>
+  <si>
+    <t>入佐　薫</t>
+  </si>
+  <si>
+    <t>高梨航輔</t>
+  </si>
+  <si>
+    <t>石井　真央</t>
+  </si>
+  <si>
+    <t>臼坂優希</t>
+  </si>
+  <si>
+    <t>津山　頌章</t>
+  </si>
+  <si>
+    <t>篠﨑太郎</t>
+  </si>
+  <si>
+    <t>荒金直美</t>
+  </si>
+  <si>
+    <t>福井梓穂</t>
+  </si>
+  <si>
+    <t>鈴木勝也</t>
   </si>
   <si>
     <t>平井智大</t>
   </si>
   <si>
+    <t>久冨木原　健二</t>
+  </si>
+  <si>
+    <t>髙木菜々美</t>
+  </si>
+  <si>
+    <t>腎臓小林洋</t>
+  </si>
+  <si>
+    <t>消化器青木</t>
+  </si>
+  <si>
+    <t>内分泌岩瀬</t>
+  </si>
+  <si>
+    <t>消化器福原</t>
+  </si>
+  <si>
+    <t>消化器鈴木</t>
+  </si>
+  <si>
+    <t>消化器深沢</t>
+  </si>
+  <si>
+    <t>消化器吉村</t>
+  </si>
+  <si>
+    <t>消化器茅島</t>
+  </si>
+  <si>
+    <t>消化器脇坂</t>
+  </si>
+  <si>
+    <t>腎臓小林佐</t>
+  </si>
+  <si>
     <t>佐川　偲</t>
   </si>
   <si>
-    <t>岩﨑文美</t>
-  </si>
-  <si>
-    <t>莇　舜平</t>
-  </si>
-  <si>
-    <t>松永崇宏</t>
-  </si>
-  <si>
     <t>雪野　満</t>
   </si>
   <si>
-    <t>吉田博道</t>
-  </si>
-  <si>
-    <t>藤村 慶子</t>
-  </si>
-  <si>
-    <t>大重達寛</t>
-  </si>
-  <si>
-    <t>吉田心慈</t>
+    <t>伊藤国秋</t>
+  </si>
+  <si>
+    <t>松原龍輔</t>
   </si>
   <si>
     <t>藤澤まり</t>
   </si>
   <si>
-    <t>入佐　薫</t>
-  </si>
-  <si>
-    <t>石井　真央</t>
-  </si>
-  <si>
-    <t>津山　頌章</t>
-  </si>
-  <si>
-    <t>篠﨑太郎</t>
-  </si>
-  <si>
-    <t>久冨木原　健二</t>
-  </si>
-  <si>
-    <t>髙木菜々美</t>
-  </si>
-  <si>
-    <t>腎臓小林洋</t>
-  </si>
-  <si>
-    <t>内分泌岩瀬</t>
-  </si>
-  <si>
-    <t>消化器福原</t>
-  </si>
-  <si>
-    <t>消化器吉村</t>
-  </si>
-  <si>
-    <t>川瀬　咲</t>
-  </si>
-  <si>
-    <t>山下博美</t>
-  </si>
-  <si>
-    <t>林智史</t>
-  </si>
-  <si>
-    <t>太良史郎</t>
-  </si>
-  <si>
-    <t>荒金直美</t>
-  </si>
-  <si>
-    <t>渡邉多代</t>
-  </si>
-  <si>
-    <t>伊藤国秋</t>
-  </si>
-  <si>
-    <t>里見　良輔</t>
-  </si>
-  <si>
-    <t>持丸貴生</t>
-  </si>
-  <si>
-    <t>松原龍輔</t>
-  </si>
-  <si>
-    <t>籠尾壽哉</t>
-  </si>
-  <si>
-    <t>織部峻太郎</t>
-  </si>
-  <si>
-    <t>高梨航輔</t>
-  </si>
-  <si>
-    <t>臼坂優希</t>
-  </si>
-  <si>
     <t>谷岡友則</t>
   </si>
   <si>
-    <t>福井梓穂</t>
-  </si>
-  <si>
     <t>熊木聡美</t>
   </si>
   <si>
-    <t>鈴木勝也</t>
-  </si>
-  <si>
-    <t>消化器青木</t>
-  </si>
-  <si>
-    <t>消化器鈴木</t>
-  </si>
-  <si>
-    <t>消化器深沢</t>
-  </si>
-  <si>
-    <t>消化器茅島</t>
-  </si>
-  <si>
-    <t>消化器脇坂</t>
-  </si>
-  <si>
-    <t>腎臓小林佐</t>
+    <t>5/2(木) ,5/3(祝) ,5/4(土) ,5/5(日) ,5/6(祝) ,5/7(火) ,5/8(水) ,5/9(木) ,5/10(金) ,5/11(土) ,5/12(日) ,5/13(月) ,5/14(火) ,5/15(水) ,5/16(木) ,5/17(金) ,5/18(土) ,5/19(日) ,5/20(月) ,5/21(火) ,5/22(水) ,5/23(木) ,5/24(金) ,5/25(土) ,5/26(日) ,5/27(月) ,5/28(火) ,5/29(水) ,5/30(木) ,5/31(金)</t>
+  </si>
+  <si>
+    <t>5/2(木) ,5/25(土)</t>
+  </si>
+  <si>
+    <t>5/6(祝) ,5/7(火) ,5/8(水) ,5/13(月) ,5/14(火) ,5/15(水) ,5/20(月) ,5/21(火) ,5/22(水) ,5/27(月) ,5/28(火) ,5/29(水)</t>
+  </si>
+  <si>
+    <t>5/2(木) ,5/8(水) ,5/9(木) ,5/12(日) ,5/15(水) ,5/16(木) ,5/18(土) ,5/19(日) ,5/22(水) ,5/23(木) ,5/26(日) ,5/29(水) ,5/30(木)</t>
+  </si>
+  <si>
+    <t>5/3(祝) ,5/4(土) ,5/5(日) ,5/25(土)</t>
+  </si>
+  <si>
+    <t>5/3(祝) ,5/4(土) ,5/5(日) ,5/25(土) ,5/26(日)</t>
+  </si>
+  <si>
+    <t>5/3(祝) ,5/4(土) ,5/5(日) ,5/6(祝) ,5/12(日)</t>
+  </si>
+  <si>
+    <t>5/3(祝) ,5/7(火) ,5/9(木) ,5/12(日) ,5/14(火) ,5/15(水) ,5/16(木) ,5/18(土) ,5/19(日) ,5/21(火) ,5/23(木) ,5/28(火) ,5/30(木)</t>
+  </si>
+  <si>
+    <t>5/8(水) ,5/10(金) ,5/11(土) ,5/15(水) ,5/22(水) ,5/24(金) ,5/25(土) ,5/26(日) ,5/29(水)</t>
+  </si>
+  <si>
+    <t>5/12(日) ,5/18(土) ,5/19(日) ,5/26(日)</t>
+  </si>
+  <si>
+    <t>5/4(土) ,5/6(祝) ,5/8(水) ,5/11(土) ,5/12(日) ,5/14(火) ,5/15(水) ,5/18(土) ,5/19(日) ,5/22(水) ,5/30(木) ,5/31(金)</t>
+  </si>
+  <si>
+    <t>5/4(土) ,5/5(日) ,5/6(祝) ,5/11(土) ,5/25(土)</t>
+  </si>
+  <si>
+    <t>5/2(木) ,5/5(日) ,5/6(祝) ,5/7(火) ,5/8(水) ,5/9(木) ,5/10(金) ,5/11(土) ,5/12(日) ,5/14(火) ,5/15(水) ,5/16(木) ,5/21(火) ,5/22(水) ,5/23(木) ,5/25(土) ,5/26(日) ,5/28(火) ,5/29(水) ,5/30(木)</t>
+  </si>
+  <si>
+    <t>5/4(土) ,5/5(日) ,5/6(祝) ,5/7(火) ,5/8(水) ,5/10(金) ,5/12(日) ,5/13(月) ,5/14(火) ,5/15(水) ,5/17(金) ,5/19(日) ,5/20(月) ,5/21(火) ,5/22(水) ,5/24(金) ,5/26(日) ,5/27(月) ,5/28(火) ,5/29(水) ,5/31(金)</t>
+  </si>
+  <si>
+    <t>5/4(土) ,5/11(土) ,5/18(土) ,5/25(土) ,5/26(日)</t>
+  </si>
+  <si>
+    <t>5/4(土) ,5/5(日) ,5/6(祝) ,5/7(火) ,5/14(火) ,5/21(火) ,5/28(火) ,5/31(金)</t>
+  </si>
+  <si>
+    <t>5/5(日) ,5/6(祝) ,5/12(日) ,5/18(土) ,5/19(日) ,5/25(土) ,5/26(日)</t>
+  </si>
+  <si>
+    <t>5/5(日) ,5/6(祝) ,5/18(土) ,5/19(日) ,5/25(土)</t>
+  </si>
+  <si>
+    <t>5/5(日) ,5/6(祝) ,5/11(土) ,5/12(日)</t>
+  </si>
+  <si>
+    <t>5/6(祝) ,5/18(土)</t>
+  </si>
+  <si>
+    <t>5/7(火) ,5/14(火) ,5/21(火) ,5/25(土) ,5/26(日) ,5/28(火)</t>
+  </si>
+  <si>
+    <t>5/7(火) ,5/12(日) ,5/14(火) ,5/19(日) ,5/21(火) ,5/26(日) ,5/28(火)</t>
+  </si>
+  <si>
+    <t>5/7(火) ,5/14(火) ,5/21(火) ,5/28(火) ,5/30(木) ,5/31(金)</t>
+  </si>
+  <si>
+    <t>5/10(金) ,5/11(土) ,5/12(日) ,5/17(金) ,5/18(土) ,5/19(日) ,5/24(金) ,5/25(土) ,5/26(日) ,5/31(金)</t>
+  </si>
+  <si>
+    <t>5/11(土) ,5/18(土) ,5/25(土)</t>
   </si>
   <si>
     <t>5/2(木) ,5/3(祝) ,5/4(土) ,5/5(日) ,5/6(祝) ,5/7(火) ,5/8(水) ,5/9(木) ,5/10(金) ,5/13(月) ,5/14(火) ,5/15(水) ,5/16(木) ,5/17(金) ,5/20(月) ,5/21(火) ,5/22(水) ,5/23(木) ,5/24(金) ,5/27(月) ,5/28(火) ,5/29(水) ,5/30(木) ,5/31(金)</t>
   </si>
   <si>
+    <t>5/8(水) ,5/9(木) ,5/10(金) ,5/11(土) ,5/13(月) ,5/15(水) ,5/20(月) ,5/22(水) ,5/24(金) ,5/25(土) ,5/26(日) ,5/27(月) ,5/29(水)</t>
+  </si>
+  <si>
+    <t>5/31(金)</t>
+  </si>
+  <si>
     <t>5/2(木) ,5/3(祝) ,5/4(土) ,5/5(日) ,5/6(祝) ,5/23(木) ,5/24(金) ,5/25(土) ,5/26(日)</t>
   </si>
   <si>
-    <t>5/2(木) ,5/25(土)</t>
-  </si>
-  <si>
-    <t>5/6(祝) ,5/7(火) ,5/8(水) ,5/13(月) ,5/14(火) ,5/15(水) ,5/20(月) ,5/21(火) ,5/22(水) ,5/27(月) ,5/28(火) ,5/29(水)</t>
-  </si>
-  <si>
-    <t>5/2(木) ,5/8(水) ,5/9(木) ,5/12(日) ,5/15(水) ,5/16(木) ,5/18(土) ,5/19(日) ,5/22(水) ,5/23(木) ,5/26(日) ,5/29(水) ,5/30(木)</t>
-  </si>
-  <si>
-    <t>5/3(祝) ,5/4(土) ,5/5(日) ,5/25(土)</t>
-  </si>
-  <si>
-    <t>5/3(祝) ,5/4(土) ,5/5(日) ,5/6(祝) ,5/12(日)</t>
-  </si>
-  <si>
-    <t>5/8(水) ,5/10(金) ,5/11(土) ,5/15(水) ,5/22(水) ,5/24(金) ,5/25(土) ,5/26(日) ,5/29(水)</t>
-  </si>
-  <si>
-    <t>5/4(土) ,5/6(祝) ,5/8(水) ,5/11(土) ,5/12(日) ,5/14(火) ,5/15(水) ,5/18(土) ,5/19(日) ,5/22(水) ,5/30(木) ,5/31(金)</t>
+    <t>5/3(祝) ,5/4(土) ,5/8(水) ,5/10(金) ,5/11(土) ,5/15(水) ,5/17(金) ,5/18(土) ,5/22(水) ,5/24(金) ,5/25(土) ,5/29(水) ,5/31(金)</t>
+  </si>
+  <si>
+    <t>5/4(土) ,5/5(日)</t>
   </si>
   <si>
     <t>5/4(土) ,5/5(日) ,5/18(土) ,5/19(日) ,5/24(金) ,5/25(土) ,5/26(日) ,5/28(火) ,5/30(木) ,5/31(金)</t>
   </si>
   <si>
-    <t>5/5(日) ,5/6(祝) ,5/12(日) ,5/18(土) ,5/19(日) ,5/25(土) ,5/26(日)</t>
-  </si>
-  <si>
-    <t>5/5(日) ,5/6(祝) ,5/11(土) ,5/12(日)</t>
-  </si>
-  <si>
-    <t>5/7(火) ,5/14(火) ,5/21(火) ,5/25(土) ,5/26(日) ,5/28(火)</t>
-  </si>
-  <si>
-    <t>5/7(火) ,5/12(日) ,5/14(火) ,5/19(日) ,5/21(火) ,5/26(日) ,5/28(火)</t>
-  </si>
-  <si>
-    <t>5/8(水) ,5/9(木) ,5/10(金) ,5/11(土) ,5/13(月) ,5/15(水) ,5/20(月) ,5/22(水) ,5/24(金) ,5/25(土) ,5/26(日) ,5/27(月) ,5/29(水)</t>
-  </si>
-  <si>
-    <t>5/31(金)</t>
+    <t>5/10(金) ,5/11(土) ,5/12(日) ,5/13(月)</t>
+  </si>
+  <si>
+    <t>5/10(金) ,5/23(木) ,5/31(金)</t>
+  </si>
+  <si>
+    <t>5/3(祝) ,5/4(土) ,5/5(日) ,5/6(祝) ,5/7(火) ,5/8(水) ,5/9(木) ,5/10(金) ,5/11(土) ,5/12(日) ,5/13(月) ,5/14(火) ,5/15(水) ,5/16(木) ,5/17(金) ,5/18(土) ,5/19(日) ,5/20(月) ,5/21(火) ,5/22(水) ,5/23(木) ,5/24(金) ,5/26(日) ,5/27(月) ,5/28(火) ,5/30(木) ,5/31(金)</t>
+  </si>
+  <si>
+    <t>5/2(木) ,5/3(祝) ,5/4(土) ,5/5(日) ,5/9(木) ,5/10(金) ,5/11(土) ,5/12(日) ,5/16(木) ,5/17(金) ,5/18(土) ,5/19(日) ,5/23(木) ,5/24(金) ,5/25(土) ,5/26(日) ,5/30(木) ,5/31(金)</t>
+  </si>
+  <si>
+    <t>5/24(金)</t>
+  </si>
+  <si>
+    <t>5/2(木) ,5/6(祝) ,5/8(水) ,5/13(月) ,5/20(月) ,5/22(水) ,5/26(日) ,5/29(水)</t>
+  </si>
+  <si>
+    <t>5/3(祝) ,5/12(日) ,5/18(土)</t>
+  </si>
+  <si>
+    <t>5/3(祝) ,5/4(土) ,5/5(日) ,5/6(祝) ,5/11(土) ,5/25(土)</t>
+  </si>
+  <si>
+    <t>5/5(日)</t>
+  </si>
+  <si>
+    <t>5/2(木) ,5/3(祝) ,5/7(火) ,5/8(水) ,5/9(木) ,5/10(金) ,5/12(日) ,5/13(月) ,5/14(火) ,5/15(水) ,5/16(木) ,5/17(金) ,5/18(土) ,5/19(日) ,5/20(月) ,5/21(火) ,5/22(水) ,5/23(木) ,5/24(金) ,5/26(日) ,5/27(月) ,5/28(火) ,5/29(水) ,5/30(木) ,5/31(金)</t>
+  </si>
+  <si>
+    <t>5/4(土) ,5/20(月) ,5/27(月) ,5/31(金)</t>
+  </si>
+  <si>
+    <t>5/18(土)</t>
+  </si>
+  <si>
+    <t>5/18(土) ,5/25(土)</t>
+  </si>
+  <si>
+    <t>5/3(祝) ,5/4(土)</t>
+  </si>
+  <si>
+    <t>5/25(土)</t>
+  </si>
+  <si>
+    <t>5/2(木) ,5/3(祝) ,5/4(土) ,5/5(日) ,5/6(祝) ,5/8(水) ,5/9(木) ,5/10(金) ,5/11(土) ,5/12(日) ,5/13(月) ,5/15(水) ,5/16(木) ,5/17(金) ,5/18(土) ,5/19(日) ,5/20(月) ,5/22(水) ,5/23(木) ,5/24(金) ,5/27(月) ,5/29(水) ,5/30(木) ,5/31(金)</t>
+  </si>
+  <si>
+    <t>5/2(木) ,5/9(木) ,5/16(木) ,5/23(木)</t>
+  </si>
+  <si>
+    <t>5/11(土) ,5/12(日) ,5/18(土) ,5/19(日) ,5/25(土) ,5/26(日)</t>
+  </si>
+  <si>
+    <t>5/14(火) ,5/16(木) ,5/23(木) ,5/28(火) ,5/30(木)</t>
+  </si>
+  <si>
+    <t>5/24(金) ,5/25(土) ,5/26(日)</t>
+  </si>
+  <si>
+    <t>5/2(木) ,5/10(金) ,5/17(金) ,5/24(金) ,5/31(金)</t>
   </si>
   <si>
     <t>5月5日(日) ,5月6日(月) ,5月12日(日) ,5月13日(月) ,5月17日(金) ,5月18日(土) ,5月19日(日) ,5月20日(月) ,5月26日(日) ,5月27日(月)</t>
@@ -226,141 +346,30 @@
     <t>5月6日(月) ,5月18日(土)</t>
   </si>
   <si>
+    <t>5月1日(水) ,5月4日(土) ,5月5日(日) ,5月8日(水) ,5月15日(水) ,5月22日(水) ,5月29日(水)</t>
+  </si>
+  <si>
     <t>5月2日(木) ,5月3日(金) ,5月4日(土) ,5月5日(日) ,5月6日(月) ,5月9日(木) ,5月13日(月) ,5月14日(火) ,5月16日(木) ,5月20日(月) ,5月24日(金) ,5月25日(土) ,5月27日(月) ,5月30日(木) ,5月31日(金)</t>
   </si>
   <si>
+    <t>5月5日(日) ,5月6日(月) ,5月25日(土) ,5月26日(日)</t>
+  </si>
+  <si>
+    <t>5月4日(土) ,5月5日(日)</t>
+  </si>
+  <si>
     <t>5月1日(水) ,5月2日(木) ,5月7日(火) ,5月8日(水) ,5月9日(木) ,5月10日(金) ,5月11日(土) ,5月12日(日) ,5月13日(月) ,5月14日(火) ,5月15日(水) ,5月16日(木) ,5月17日(金) ,5月19日(日) ,5月20日(月) ,5月21日(火) ,5月22日(水) ,5月23日(木) ,5月24日(金) ,5月26日(日) ,5月27日(月) ,5月28日(火) ,5月29日(水) ,5月30日(木) ,5月31日(金)</t>
   </si>
   <si>
-    <t>5/4(土) ,5/5(日) ,5/6(祝) ,5/11(土) ,5/25(土)</t>
-  </si>
-  <si>
-    <t>5/2(木) ,5/3(祝) ,5/4(土) ,5/5(日) ,5/6(祝) ,5/7(火) ,5/8(水) ,5/9(木) ,5/10(金) ,5/11(土) ,5/12(日) ,5/13(月) ,5/14(火) ,5/15(水) ,5/16(木) ,5/17(金) ,5/18(土) ,5/19(日) ,5/20(月) ,5/21(火) ,5/22(水) ,5/23(木) ,5/24(金) ,5/25(土) ,5/26(日) ,5/27(月) ,5/28(火) ,5/29(水) ,5/30(木) ,5/31(金)</t>
-  </si>
-  <si>
-    <t>5/3(祝) ,5/7(火) ,5/9(木) ,5/12(日) ,5/14(火) ,5/15(水) ,5/16(木) ,5/18(土) ,5/19(日) ,5/21(火) ,5/23(木) ,5/28(火) ,5/30(木)</t>
-  </si>
-  <si>
-    <t>5/2(木) ,5/5(日) ,5/6(祝) ,5/7(火) ,5/8(水) ,5/9(木) ,5/10(金) ,5/11(土) ,5/12(日) ,5/14(火) ,5/15(水) ,5/16(木) ,5/21(火) ,5/22(水) ,5/23(木) ,5/25(土) ,5/26(日) ,5/28(火) ,5/29(水) ,5/30(木)</t>
-  </si>
-  <si>
-    <t>5/7(火) ,5/14(火) ,5/21(火) ,5/28(火) ,5/30(木) ,5/31(金)</t>
-  </si>
-  <si>
-    <t>5/3(祝) ,5/4(土) ,5/5(日) ,5/25(土) ,5/26(日)</t>
-  </si>
-  <si>
-    <t>5/3(祝) ,5/4(土) ,5/8(水) ,5/10(金) ,5/11(土) ,5/15(水) ,5/17(金) ,5/18(土) ,5/22(水) ,5/24(金) ,5/25(土) ,5/29(水) ,5/31(金)</t>
-  </si>
-  <si>
-    <t>5/12(日) ,5/18(土) ,5/19(日) ,5/26(日)</t>
-  </si>
-  <si>
-    <t>5/4(土) ,5/5(日) ,5/6(祝) ,5/7(火) ,5/8(水) ,5/10(金) ,5/12(日) ,5/13(月) ,5/14(火) ,5/15(水) ,5/17(金) ,5/19(日) ,5/20(月) ,5/21(火) ,5/22(水) ,5/24(金) ,5/26(日) ,5/27(月) ,5/28(火) ,5/29(水) ,5/31(金)</t>
-  </si>
-  <si>
-    <t>5/4(土) ,5/5(日)</t>
-  </si>
-  <si>
-    <t>5/4(土) ,5/11(土) ,5/18(土) ,5/25(土) ,5/26(日)</t>
-  </si>
-  <si>
-    <t>5/4(土) ,5/5(日) ,5/6(祝) ,5/7(火) ,5/14(火) ,5/21(火) ,5/28(火) ,5/31(金)</t>
-  </si>
-  <si>
-    <t>5/5(日) ,5/6(祝) ,5/18(土) ,5/19(日) ,5/25(土)</t>
-  </si>
-  <si>
-    <t>5/6(祝) ,5/18(土)</t>
-  </si>
-  <si>
-    <t>5/10(金) ,5/11(土) ,5/12(日) ,5/13(月)</t>
-  </si>
-  <si>
-    <t>5/10(金) ,5/11(土) ,5/12(日) ,5/17(金) ,5/18(土) ,5/19(日) ,5/24(金) ,5/25(土) ,5/26(日) ,5/31(金)</t>
-  </si>
-  <si>
-    <t>5/10(金) ,5/23(木) ,5/31(金)</t>
-  </si>
-  <si>
-    <t>5/11(土) ,5/18(土) ,5/25(土)</t>
-  </si>
-  <si>
-    <t>5月1日(水) ,5月4日(土) ,5月5日(日) ,5月8日(水) ,5月15日(水) ,5月22日(水) ,5月29日(水)</t>
-  </si>
-  <si>
-    <t>5月5日(日) ,5月6日(月) ,5月25日(土) ,5月26日(日)</t>
-  </si>
-  <si>
-    <t>5月4日(土) ,5月5日(日) ,5月25日(土)</t>
-  </si>
-  <si>
     <t>5月2日(木) ,5月3日(金) ,5月4日(土) ,5月5日(日) ,5月6日(月) ,5月10日(金) ,5月11日(土) ,5月17日(金) ,5月18日(土) ,5月19日(日) ,5月25日(土)</t>
   </si>
   <si>
     <t>5月9日(木) ,5月16日(木) ,5月17日(金) ,5月18日(土) ,5月19日(日) ,5月23日(木) ,5月24日(金) ,5月25日(土) ,5月30日(木)</t>
   </si>
   <si>
-    <t>5/11(土) ,5/12(日) ,5/18(土) ,5/19(日) ,5/25(土) ,5/26(日)</t>
-  </si>
-  <si>
-    <t>5/3(祝) ,5/4(土) ,5/5(日) ,5/6(祝) ,5/7(火) ,5/8(水) ,5/9(木) ,5/10(金) ,5/11(土) ,5/12(日) ,5/13(月) ,5/14(火) ,5/15(水) ,5/16(木) ,5/17(金) ,5/18(土) ,5/19(日) ,5/20(月) ,5/21(火) ,5/22(水) ,5/23(木) ,5/24(金) ,5/26(日) ,5/27(月) ,5/28(火) ,5/30(木) ,5/31(金)</t>
-  </si>
-  <si>
-    <t>5/2(木) ,5/3(祝) ,5/4(土) ,5/5(日) ,5/9(木) ,5/10(金) ,5/11(土) ,5/12(日) ,5/16(木) ,5/17(金) ,5/18(土) ,5/19(日) ,5/23(木) ,5/24(金) ,5/25(土) ,5/26(日) ,5/30(木) ,5/31(金)</t>
-  </si>
-  <si>
-    <t>5/24(金)</t>
-  </si>
-  <si>
-    <t>5/2(木) ,5/10(金) ,5/17(金) ,5/24(金) ,5/31(金)</t>
-  </si>
-  <si>
-    <t>5/3(祝) ,5/12(日) ,5/18(土)</t>
-  </si>
-  <si>
-    <t>5/5(日)</t>
-  </si>
-  <si>
-    <t>5/3(祝) ,5/4(土)</t>
-  </si>
-  <si>
-    <t>5/2(木) ,5/3(祝) ,5/4(土) ,5/5(日) ,5/6(祝) ,5/8(水) ,5/9(木) ,5/10(金) ,5/11(土) ,5/12(日) ,5/13(月) ,5/15(水) ,5/16(木) ,5/17(金) ,5/18(土) ,5/19(日) ,5/20(月) ,5/22(水) ,5/23(木) ,5/24(金) ,5/27(月) ,5/29(水) ,5/30(木) ,5/31(金)</t>
-  </si>
-  <si>
-    <t>5/25(土)</t>
-  </si>
-  <si>
-    <t>5/14(火) ,5/16(木) ,5/23(木) ,5/28(火) ,5/30(木)</t>
-  </si>
-  <si>
-    <t>5/24(金) ,5/25(土) ,5/26(日)</t>
-  </si>
-  <si>
     <t>5月3日(金) ,5月25日(土)</t>
   </si>
   <si>
-    <t>5/2(木) ,5/3(祝) ,5/7(火) ,5/8(水) ,5/9(木) ,5/10(金) ,5/12(日) ,5/13(月) ,5/14(火) ,5/15(水) ,5/16(木) ,5/17(金) ,5/18(土) ,5/19(日) ,5/20(月) ,5/21(火) ,5/22(水) ,5/23(木) ,5/24(金) ,5/26(日) ,5/27(月) ,5/28(火) ,5/29(水) ,5/30(木) ,5/31(金)</t>
-  </si>
-  <si>
-    <t>5/2(木) ,5/6(祝) ,5/8(水) ,5/13(月) ,5/20(月) ,5/22(水) ,5/26(日) ,5/29(水)</t>
-  </si>
-  <si>
-    <t>5/4(土) ,5/20(月) ,5/27(月) ,5/31(金)</t>
-  </si>
-  <si>
-    <t>5/2(木) ,5/9(木) ,5/16(木) ,5/23(木)</t>
-  </si>
-  <si>
-    <t>5/3(祝) ,5/4(土) ,5/5(日) ,5/6(祝) ,5/11(土) ,5/25(土)</t>
-  </si>
-  <si>
-    <t>5/18(土)</t>
-  </si>
-  <si>
-    <t>5/18(土) ,5/25(土)</t>
-  </si>
-  <si>
     <t>5月1日(水) ,5月2日(木) ,5月3日(金) ,5月4日(土) ,5月7日(火) ,5月8日(水) ,5月9日(木) ,5月10日(金) ,5月11日(土) ,5月12日(日) ,5月13日(月) ,5月14日(火) ,5月15日(水) ,5月16日(木) ,5月17日(金) ,5月18日(土) ,5月19日(日) ,5月20日(月) ,5月21日(火) ,5月22日(水) ,5月23日(木) ,5月24日(金) ,5月27日(月) ,5月28日(火) ,5月29日(水) ,5月30日(木) ,5月31日(金)</t>
   </si>
   <si>
@@ -376,16 +385,16 @@
     <t>5月4日(土)</t>
   </si>
   <si>
+    <t>5月17日(金)</t>
+  </si>
+  <si>
+    <t>5月18日(土)</t>
+  </si>
+  <si>
+    <t>5月3日(金)</t>
+  </si>
+  <si>
     <t>5月11日(土)</t>
-  </si>
-  <si>
-    <t>5月18日(土)</t>
-  </si>
-  <si>
-    <t>5月3日(金)</t>
-  </si>
-  <si>
-    <t>5月17日(金)</t>
   </si>
 </sst>
 </file>
@@ -438,16 +447,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:G46" totalsRowShown="0">
-  <autoFilter ref="A1:G46"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:J46" totalsRowShown="0">
+  <autoFilter ref="A1:J46"/>
+  <tableColumns count="10">
     <tableColumn id="1" name="name" dataDxfId="0"/>
     <tableColumn id="2" name="不可日" dataDxfId="0"/>
     <tableColumn id="3" name="希望日" dataDxfId="0"/>
-    <tableColumn id="4" name="第三希望日" dataDxfId="0"/>
-    <tableColumn id="5" name="第一希望日" dataDxfId="0"/>
-    <tableColumn id="6" name="第二希望日" dataDxfId="0"/>
-    <tableColumn id="7" name="第四希望日" dataDxfId="0"/>
+    <tableColumn id="4" name="×" dataDxfId="0"/>
+    <tableColumn id="5" name="X" dataDxfId="0"/>
+    <tableColumn id="6" name="○" dataDxfId="0"/>
+    <tableColumn id="7" name="○３" dataDxfId="0"/>
+    <tableColumn id="8" name="○４" dataDxfId="0"/>
+    <tableColumn id="9" name="○２" dataDxfId="0"/>
+    <tableColumn id="10" name="○１" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -738,13 +750,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -766,651 +778,795 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>95</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>98</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>99</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>104</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>107</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>74</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>122</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>109</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>110</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>81</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>82</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="G33" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>114</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>104</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="G36" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>87</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="E38" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>88</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="F39" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>115</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>116</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1" t="s">
-        <v>117</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
